--- a/biology/Histoire de la zoologie et de la botanique/John_Sinclair_(scientifique)/John_Sinclair_(scientifique).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Sinclair_(scientifique)/John_Sinclair_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Sinclair (10 mai 1754 - 21 décembre 1835) est un agronome et statisticien écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinclair est né au château de Thurso. Il est le fils aîné de George Sinclair d'Ulbster. Après avoir étudié à Édimbourg, Glasgow et au Trinity College d'Oxford, il est admis au corps enseignant des avocats en Écosse, et appelé au barreau anglais, sans jamais y pratiquer.
 En 1770, il hérite des propriétés de son père dans le Caithness. Il voyage ensuite en Europe avant de se marier et de s'installer à nouveau à Thurso.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Agriculture Pratique et Raisonnée. Paris, Madame Huzard, et Metz, L. Devilly, (Stenay, imprimerie de Templeux), 1825. La traduction fut réalisée par l'agronome lorrain Mathieu de Dombasle. Son ouvrage couvre en détail l'ensemble des aspects de l'agriculture, tant financiers que techniques.</t>
         </is>
